--- a/candy_schema_table.xlsx
+++ b/candy_schema_table.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tjg_project\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tjg_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B71F2-302D-417C-A100-3A137DA5E967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B370D6F2-18C2-4B52-AD60-900C8288B23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFF4FBFF-EE49-47EE-9ED2-967415C424A0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="322">
   <si>
     <t>Not Null</t>
   </si>
@@ -1076,6 +1076,114 @@
   </si>
   <si>
     <t>Candy Project DB리스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table cart (cid bigint not null auto_increment, added_at datetime(6) not null, qty integer not null, ppk bigint not null, upk bigint not null, primary key (cid)) engine=InnoDB</t>
+  </si>
+  <si>
+    <t>create table user_view_log (id bigint not null auto_increment, ppk bigint, qty integer, sub_category_id bigint, upk bigint, viewed_at datetime(6), primary key (id)) engine=InnoDB</t>
+  </si>
+  <si>
+    <t>alter table cart add constraint FKi5rep9miokyv1vywdoq4lepid foreign key (ppk) references product (id)</t>
+  </si>
+  <si>
+    <t>alter table cart add constraint FK1vacpri40ue82b7n3yxojpgnn foreign key (upk) references users (id)</t>
+  </si>
+  <si>
+    <t>alter table order_detail add constraint FKrws2q0si6oyd6il8gqe2aennc foreign key (order_id) references orders (id)</t>
+  </si>
+  <si>
+    <t>alter table order_detail add constraint FK7suagr7t2yj2olsgpkv7ml0ub foreign key (ppk) references product (id)</t>
+  </si>
+  <si>
+    <t>alter table product add constraint FK3tqdw6fsg0k99ouxxeftuwmr1 foreign key (category_sub_id) references category_sub (id)</t>
+  </si>
+  <si>
+    <t>alter table product add constraint FK4a88lyft7u61iher2m18r8hqx foreign key (upk) references users (id)</t>
+  </si>
+  <si>
+    <t>alter table recipe add constraint FKon2xvw5of2nmyqaf8v5w1k72d foreign key (sub_category_id) references category_sub (id)</t>
+  </si>
+  <si>
+    <t>alter table recipe_review add constraint FKgvv15ffc22axtjognae8076hq foreign key (user_id) references users (id)</t>
+  </si>
+  <si>
+    <t>alter table user_coupon add constraint FK23vpkw483hhbe77dgvimcipf4 foreign key (coupon_id) references coupon (coupon_id)</t>
+  </si>
+  <si>
+    <t>alter table user_coupon add constraint FKgqnogpxxp29atogg1d2fv9q0o foreign key (user_id) references users (id)</t>
+  </si>
+  <si>
+    <t>테이블 생성 쿼리 및 외래키 설정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table category_main (id bigint not null auto_increment, display_order integer, is_used bit not null, name varchar(50) not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table category_sub (id bigint not null auto_increment, display_order integer, is_used bit not null, name varchar(50) not null, main_id bigint, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter table category_sub add constraint FK6tem59mqj94i5475b4gaxpdvs foreign key (main_id) references category_main (id)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table coupon (coupon_id bigint not null, coupon_dc_rate integer, coupon_qty integer, primary key (coupon_id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table delivery (del_type integer not null auto_increment, del_description varchar(500), del_name varchar(50), primary key (del_type)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table notice (id bigint not null auto_increment, content TEXT not null, created_at datetime(6), is_pinned TINYINT(1), title varchar(200) not null, writer varchar(30), primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table order_detail (id bigint not null auto_increment, ppk bigint, price integer not null, product_name varchar(255), qty integer not null, order_id bigint, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table product (id bigint not null auto_increment, allergy_info varchar(255), brand_name varchar(100), count integer not null, dc integer not null, del_type integer not null, description varchar(500), image_url varchar(255), image_url_name varchar(100), is_hot_deal bit not null, is_member_special bit not null, notes varchar(255), origin varchar(100), pid varchar(20) not null, price integer not null, product_date date, product_description_image varchar(255), product_information_image varchar(255), product_name varchar(200), seller varchar(255), unit varchar(255), weight varchar(255), category_sub_id bigint, upk bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table orders (id bigint not null auto_increment, address1 varchar(255), address2 varchar(255), delivered_at datetime(6), delivery_status enum ('DELIVERED','READY','SHIPPING'), discount_amount integer not null, eta datetime(6), memo varchar(255), odate datetime(6), order_code varchar(50) not null, receiver_name varchar(255), receiver_phone varchar(255), shipping_at datetime(6), shipping_fee integer not null, tid varchar(50), total_amount integer not null, upk bigint, zipcode varchar(255), primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table product_qna (id bigint not null auto_increment, content varchar(255), date datetime(6), is_private bit, ppk bigint not null, status varchar(50), title varchar(255) not null, upk bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table recipe (id bigint not null auto_increment, content TEXT, cook_time integer, created_at datetime(6), difficulty varchar(20), image_url varchar(255), ingredients longtext, rating DOUBLE DEFAULT 0, review_count INT DEFAULT 0, steps longtext, summary varchar(300), tips varchar(300), title varchar(150) not null, updated_at datetime(6), youtube_url varchar(255), sub_category_id bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table recipe_review (id bigint not null auto_increment, content TEXT, created_at datetime(6), rating float(53) not null, recipe_id bigint not null, user_id bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table refresh_tokens (id bigint not null auto_increment, expiry_date datetime(6) not null, token varchar(64) not null, user_id bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter table recipe_review add constraint FKky1nx8d7m557dpa96gi3ftv5n foreign key (recipe_id) references recipe (id)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table reviews (id bigint not null auto_increment, content TEXT, date varchar(20), images JSON, is_best bit not null, likes integer not null, ppk bigint not null, product_name varchar(200), tags JSON, title varchar(255), upk bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table user_coupon (id bigint not null auto_increment, is_used bit not null, qty integer, coupon_id bigint not null, user_id bigint not null, primary key (id)) engine=InnoDB</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>create table users (id bigint not null auto_increment, address varchar(255), birthday varchar(20), email varchar(255) not null, gender varchar(1), name varchar(100) not null, password varchar(255) not null, phone varchar(20), provider varchar(20), recommendation varchar(100), user_id varchar(50) not null, zonecode varchar(5), primary key (id)) engine=InnoDB</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1270,7 +1378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1468,8 +1576,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1692,6 +1806,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1824,7 +1964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1846,13 +1986,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1865,6 +2005,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2235,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6338147F-1D99-44FA-BB35-B619776CF054}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="B1:P24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2248,7 +2391,6 @@
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.75" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2258,52 +2400,52 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -2533,10 +2675,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950E724E-6332-467B-81D1-6797A0FAE39F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:H28"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3050,6 +3192,27 @@
       </c>
       <c r="H28" s="1"/>
     </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3058,7 +3221,2111 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4482753-9881-4462-A12B-0ED0DA021897}">
-  <sheetPr>
+  <sheetPr codeName="Sheet11">
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62A5D62-FC5D-48F3-A7B9-5ACABAFCA472}">
+  <sheetPr codeName="Sheet12">
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C683755-40E0-47E5-9DD3-9121758CA7B8}">
+  <sheetPr codeName="Sheet13">
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB564605-6428-4689-B6E8-6317C1372BB9}">
+  <sheetPr codeName="Sheet14">
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8A620C-4DE9-4CEF-87AE-964CD76B49BC}">
+  <sheetPr codeName="Sheet15">
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D3102C-D799-4847-9ED7-5D3455334896}">
+  <sheetPr codeName="Sheet16">
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2C5564-339F-4B44-A907-A52BCB4FAA97}">
+  <sheetPr codeName="Sheet17">
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFF2EDD-2C93-4CA7-91B0-252A9066422E}">
+  <sheetPr codeName="Sheet18">
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CA7714-C08D-46E9-8C56-301DB02C1305}">
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD2FD5-7CD3-4A94-B633-3F77518BFC4D}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B2:H12"/>
@@ -3081,7 +5348,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -3112,7 +5379,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -3132,13 +5399,13 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -3151,10 +5418,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -3170,102 +5437,33 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1"/>
+      <c r="B11" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="B12" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -3273,12 +5471,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62A5D62-FC5D-48F3-A7B9-5ACABAFCA472}">
-  <sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA0235E-83AC-45B7-845D-BFD478CF97BA}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:H20"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3298,7 +5496,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -3329,7 +5527,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -3349,13 +5547,13 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -3368,16 +5566,16 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -3387,16 +5585,16 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
@@ -3406,233 +5604,40 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1"/>
+      <c r="B11" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1"/>
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="B13" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -3640,1398 +5645,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C683755-40E0-47E5-9DD3-9121758CA7B8}">
-  <sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519B92B6-4B69-4C0F-8F31-D108CF8EB526}">
+  <sheetPr codeName="Sheet5">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:H10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB564605-6428-4689-B6E8-6317C1372BB9}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B2:H8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8A620C-4DE9-4CEF-87AE-964CD76B49BC}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B2:H15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D3102C-D799-4847-9ED7-5D3455334896}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B2:H9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2C5564-339F-4B44-A907-A52BCB4FAA97}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B2:H10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFF2EDD-2C93-4CA7-91B0-252A9066422E}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B2:H16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CA7714-C08D-46E9-8C56-301DB02C1305}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B2:H9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFD2FD5-7CD3-4A94-B633-3F77518BFC4D}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5051,7 +5670,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -5079,10 +5698,10 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -5096,16 +5715,14 @@
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -5121,16 +5738,16 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -5138,24 +5755,16 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -5163,12 +5772,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA0235E-83AC-45B7-845D-BFD478CF97BA}">
-  <sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CDAFB8-0DE8-46CC-AF12-F512E34CD017}">
+  <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5188,7 +5797,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -5216,13 +5825,13 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -5233,22 +5842,20 @@
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -5258,16 +5865,16 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>268</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
@@ -5275,45 +5882,16 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>309</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -5321,12 +5899,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519B92B6-4B69-4C0F-8F31-D108CF8EB526}">
-  <sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7395001C-A269-4C17-B6E1-AAEBD948016C}">
+  <sheetPr codeName="Sheet7">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5346,7 +5924,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -5374,10 +5952,10 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -5391,20 +5969,22 @@
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
@@ -5414,13 +5994,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
@@ -5430,6 +6010,74 @@
         <v>7</v>
       </c>
       <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -5437,12 +6085,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CDAFB8-0DE8-46CC-AF12-F512E34CD017}">
-  <sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBAAA89-9D2C-42F7-BA3F-790E86CB62D7}">
+  <sheetPr codeName="Sheet8">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5462,7 +6110,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -5490,13 +6138,13 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>269</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -5507,17 +6155,19 @@
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -5530,13 +6180,13 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
@@ -5546,6 +6196,88 @@
         <v>7</v>
       </c>
       <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -5553,12 +6285,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7395001C-A269-4C17-B6E1-AAEBD948016C}">
-  <sheetPr>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBAC54A-2332-4897-8683-83D3BADE037B}">
+  <sheetPr codeName="Sheet9">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:H10"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5578,7 +6310,7 @@
         <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
@@ -5609,360 +6341,6 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBAAA89-9D2C-42F7-BA3F-790E86CB62D7}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B2:H10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBAC54A-2332-4897-8683-83D3BADE037B}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B2:H22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -6305,6 +6683,17 @@
         <v>7</v>
       </c>
       <c r="H22" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
